--- a/biology/Botanique/Anthyllide_vulnéraire/Anthyllide_vulnéraire.xlsx
+++ b/biology/Botanique/Anthyllide_vulnéraire/Anthyllide_vulnéraire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthyllide_vuln%C3%A9raire</t>
+          <t>Anthyllide_vulnéraire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllis vulneraria
 L'Anthyllide vulnéraire (Anthyllis vulneraria) est une plante herbacée de la famille des Fabacées (Légumineuses).
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthyllide_vuln%C3%A9raire</t>
+          <t>Anthyllide_vulnéraire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,16 +529,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Organes reproducteurs
-Couleur dominante des fleurs : blanc, jaune, rose
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : blanc, jaune, rose
 Période de floraison : juin-septembre
 Inflorescence : racème capituliforme
 Sexualité : hermaphrodite
 Ordre de maturation : protandre
-Pollinisation : entomogame
-Graine
-Fruit : gousse
-Dissémination : anémochore</t>
+Pollinisation : entomogame</t>
         </is>
       </c>
     </row>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthyllide_vuln%C3%A9raire</t>
+          <t>Anthyllide_vulnéraire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,16 +565,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principaux constituants</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plante renferme des tanins, des saponines, du mucilage, des flavonoïdes et des acides organiques[1].
-Comme l'épithète l'indique, l'anthyllide vulnéraire est un remède populaire pour soigner les plaies, les brûlures et les inflammations cutanées. Elle favorise la cicatrisation.
-On lui prête également des vertus contre la toux, puis elle facilite la digestion.
-Elle est parfois utilisée pour ses vertus dépolluantes. Ses racines sont en effet capables d'aspirer certains métaux toxiques (zinc, plomb, cadmium) présents dans un sol[2]. 
-</t>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fruit : gousse
+Dissémination : anémochore</t>
         </is>
       </c>
     </row>
@@ -570,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthyllide_vuln%C3%A9raire</t>
+          <t>Anthyllide_vulnéraire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,10 +602,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Principaux constituants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante renferme des tanins, des saponines, du mucilage, des flavonoïdes et des acides organiques.
+Comme l'épithète l'indique, l'anthyllide vulnéraire est un remède populaire pour soigner les plaies, les brûlures et les inflammations cutanées. Elle favorise la cicatrisation.
+On lui prête également des vertus contre la toux, puis elle facilite la digestion.
+Elle est parfois utilisée pour ses vertus dépolluantes. Ses racines sont en effet capables d'aspirer certains métaux toxiques (zinc, plomb, cadmium) présents dans un sol. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthyllide_vulnéraire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthyllide_vuln%C3%A9raire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : pelouses aérohalines submaritimes atlantiques
 Aire de répartition : atlantique septentrional
@@ -597,40 +652,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anthyllide_vuln%C3%A9raire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anthyllide_vulnéraire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anthyllide_vuln%C3%A9raire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anthyllis vulneraria L. subsp. alpestris (Kit.) Asch. &amp; Gr.
 Anthyllis vulneraria L. subsp. bocsii
 Anthyllis vulneraria L. subsp. baldensis
 Anthyllis vulneraria L. subsp. maritima
 Anthyllis vulneraria L. subsp. rubriflora : espèce méditerranéenne à fleurs rouges présentes notamment sur les causses du sud du Massif central.
-Anthyllis vulneraria L. subsp. vulneraria
-Faune associée
-L'Anthyllide vulnéraire est la ou une des plantes hôtes des chenilles des papillons de jour (rhopalocères) de la famille des Lycaenidae :
+Anthyllis vulneraria L. subsp. vulneraria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthyllide_vulnéraire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthyllide_vuln%C3%A9raire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Faune associée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Anthyllide vulnéraire est la ou une des plantes hôtes des chenilles des papillons de jour (rhopalocères) de la famille des Lycaenidae :
 Thècle de la ronce ou Argus vert, Callophrys rubi
 Argus frêle, Cupido minimus
 Azuré grenadin, Cupido lorquinii
@@ -641,7 +732,7 @@
 Bembecia hymenopteriformis, un Sesiidae
 Bembecia iberica
 Bembecia ichneumoniformis, la Sésie ichneumoniforme
-Coleophora vulnerariae, un Coleophoridae[3].</t>
+Coleophora vulnerariae, un Coleophoridae.</t>
         </is>
       </c>
     </row>
